--- a/fuentes/contenidos/grado06/guion03/CS_06_03_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion03/CS_06_03_CO_Escaleta.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCMarquez\Desktop\Escaletas ajustadas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16755" windowHeight="8100" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -790,7 +785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +801,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +838,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -858,6 +859,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -928,7 +933,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,7 +968,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3135,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,94 +3170,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="16" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="12" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3939,7 +3944,7 @@
       <c r="G18" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="14">
         <v>8</v>
       </c>
       <c r="I18" s="6" t="s">
@@ -3950,7 +3955,7 @@
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="13" t="s">
         <v>83</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -4279,7 +4284,7 @@
       <c r="G26" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="14">
         <v>11</v>
       </c>
       <c r="I26" s="6" t="s">
@@ -4290,7 +4295,7 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="13" t="s">
         <v>101</v>
       </c>
       <c r="N26" s="5" t="s">
@@ -4361,7 +4366,7 @@
       <c r="G28" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="14">
         <v>12</v>
       </c>
       <c r="I28" s="6" t="s">
@@ -4372,7 +4377,7 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="13" t="s">
         <v>98</v>
       </c>
       <c r="N28" s="5" t="s">
@@ -5042,7 +5047,7 @@
       <c r="G43" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="14">
         <v>20</v>
       </c>
       <c r="I43" s="6" t="s">
@@ -5053,7 +5058,7 @@
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="13" t="s">
         <v>73</v>
       </c>
       <c r="N43" s="5" t="s">
@@ -5342,7 +5347,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="6">
+      <c r="H49" s="14">
         <v>26</v>
       </c>
       <c r="I49" s="6" t="s">
@@ -5351,7 +5356,7 @@
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="13" t="s">
         <v>85</v>
       </c>
       <c r="N49" s="5"/>

--- a/fuentes/contenidos/grado06/guion03/CS_06_03_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion03/CS_06_03_CO_Escaleta.xlsx
@@ -10,7 +10,7 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -727,7 +727,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,6 +780,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -838,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -864,14 +871,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3140,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,50 +3181,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="17"/>
+      <c r="N1" s="15"/>
       <c r="O1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>116</v>
       </c>
       <c r="Q1" s="16" t="s">
@@ -3233,18 +3244,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
       <c r="M2" s="12" t="s">
         <v>92</v>
       </c>
@@ -3618,10 +3629,10 @@
       <c r="H11" s="6">
         <v>4</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="18" t="s">
         <v>192</v>
       </c>
       <c r="K11" s="7"/>
@@ -3673,7 +3684,7 @@
       <c r="H12" s="6">
         <v>5</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -3726,7 +3737,7 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="5"/>
       <c r="K13" s="7"/>
       <c r="L13" s="5"/>
@@ -3761,7 +3772,7 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="5"/>
       <c r="K14" s="7"/>
       <c r="L14" s="5"/>
@@ -3796,7 +3807,7 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="5"/>
       <c r="K15" s="7"/>
       <c r="L15" s="5"/>
@@ -3835,10 +3846,10 @@
       <c r="H16" s="6">
         <v>6</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="18" t="s">
         <v>194</v>
       </c>
       <c r="K16" s="7"/>
@@ -3892,7 +3903,7 @@
       <c r="H17" s="6">
         <v>7</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -3947,7 +3958,7 @@
       <c r="H18" s="14">
         <v>8</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -4004,7 +4015,7 @@
       <c r="H19" s="6">
         <v>9</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -4053,7 +4064,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="5"/>
       <c r="K20" s="7"/>
       <c r="L20" s="5"/>
@@ -4088,7 +4099,7 @@
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="5"/>
       <c r="K21" s="7"/>
       <c r="L21" s="5"/>
@@ -4123,7 +4134,7 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="5"/>
       <c r="K22" s="7"/>
       <c r="L22" s="5"/>
@@ -4158,7 +4169,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="5"/>
       <c r="K23" s="7"/>
       <c r="L23" s="5"/>
@@ -4193,7 +4204,7 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="5"/>
       <c r="K24" s="7"/>
       <c r="L24" s="5"/>
@@ -4232,7 +4243,7 @@
       <c r="H25" s="6">
         <v>10</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="19" t="s">
         <v>19</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -4287,7 +4298,7 @@
       <c r="H26" s="14">
         <v>11</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="5" t="s">
@@ -4332,7 +4343,7 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="19"/>
       <c r="J27" s="5"/>
       <c r="K27" s="7"/>
       <c r="L27" s="5"/>
@@ -4369,7 +4380,7 @@
       <c r="H28" s="14">
         <v>12</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="5" t="s">
@@ -4428,10 +4439,10 @@
       <c r="H29" s="6">
         <v>13</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="18" t="s">
         <v>201</v>
       </c>
       <c r="K29" s="7"/>
@@ -4485,7 +4496,7 @@
       <c r="H30" s="6">
         <v>14</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="5" t="s">
@@ -4536,7 +4547,7 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="5"/>
       <c r="K31" s="7"/>
       <c r="L31" s="9"/>
@@ -4571,7 +4582,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="19"/>
       <c r="J32" s="5"/>
       <c r="K32" s="7"/>
       <c r="L32" s="10"/>
@@ -4608,10 +4619,10 @@
       <c r="H33" s="6">
         <v>15</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="5" t="s">
+      <c r="J33" s="18" t="s">
         <v>203</v>
       </c>
       <c r="K33" s="7"/>
@@ -4663,7 +4674,7 @@
       <c r="H34" s="6">
         <v>16</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="5" t="s">
@@ -4716,7 +4727,7 @@
       <c r="H35" s="6">
         <v>17</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="5" t="s">
@@ -4769,10 +4780,10 @@
       <c r="H36" s="6">
         <v>18</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="18" t="s">
         <v>206</v>
       </c>
       <c r="K36" s="7"/>
@@ -4822,7 +4833,7 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="I37" s="19"/>
       <c r="J37" s="5"/>
       <c r="K37" s="7"/>
       <c r="L37" s="9"/>
@@ -4857,7 +4868,7 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="I38" s="19"/>
       <c r="J38" s="5"/>
       <c r="K38" s="7"/>
       <c r="L38" s="9"/>
@@ -4892,7 +4903,7 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="19"/>
       <c r="J39" s="5"/>
       <c r="K39" s="7"/>
       <c r="L39" s="9"/>
@@ -4927,7 +4938,7 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="19"/>
       <c r="J40" s="5"/>
       <c r="K40" s="7"/>
       <c r="L40" s="9"/>
@@ -4962,7 +4973,7 @@
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="I41" s="19"/>
       <c r="J41" s="5"/>
       <c r="K41" s="7"/>
       <c r="L41" s="10"/>
@@ -4999,7 +5010,7 @@
       <c r="H42" s="6">
         <v>19</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="5" t="s">
@@ -5050,7 +5061,7 @@
       <c r="H43" s="14">
         <v>20</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="5" t="s">
@@ -5107,7 +5118,7 @@
       <c r="H44" s="6">
         <v>21</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="5" t="s">
@@ -5158,7 +5169,7 @@
       <c r="H45" s="6">
         <v>22</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="5" t="s">
@@ -5209,7 +5220,7 @@
       <c r="H46" s="6">
         <v>23</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J46" s="5" t="s">
@@ -5595,6 +5606,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5609,12 +5626,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L37:L40 L30:L31 L35 L42:L49">
